--- a/src/main/resources/templates/data_content_asset_template.xlsx
+++ b/src/main/resources/templates/data_content_asset_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Asset Management Project\military-asset-backend\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEB7A3D-A349-4153-B97C-1444F8722261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CB5D37-EC51-4B93-A362-3363931FC84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="10821" windowHeight="13401" xr2:uid="{D13DF8D3-E13C-45DA-BF9D-0E5023A0C034}"/>
+    <workbookView xWindow="4661" yWindow="2381" windowWidth="13593" windowHeight="10363" xr2:uid="{D13DF8D3-E13C-45DA-BF9D-0E5023A0C034}"/>
   </bookViews>
   <sheets>
     <sheet name="数据内容资产" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>数据内容资产</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -160,15 +160,26 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>单价</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>盘点单位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价（元）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额（元）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘点备注</t>
+  </si>
+  <si>
+    <t>核价备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始账备注</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -258,21 +269,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -290,93 +292,63 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -659,219 +631,208 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD69A13-4B9C-43E5-B25D-4782E8CC53C6}">
-  <dimension ref="A1:X5"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13:T14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="31.2109375" customWidth="1"/>
-    <col min="5" max="5" width="23.0703125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="23.0703125" style="11" customWidth="1"/>
     <col min="6" max="6" width="22.28515625" customWidth="1"/>
     <col min="13" max="13" width="17.5" customWidth="1"/>
     <col min="21" max="21" width="9.2109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="22.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
     </row>
-    <row r="2" spans="1:24" ht="14.6" x14ac:dyDescent="0.4">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:24" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="U2" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="V2" s="7"/>
+      <c r="V2" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="X2" s="18" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" s="14" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:24" s="12" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="15" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="4">
         <v>1</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="5">
         <v>1</v>
       </c>
-      <c r="P3" s="8">
+      <c r="P3" s="4">
         <v>1</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="9"/>
-      <c r="S3" s="8" t="s">
+      <c r="R3" s="5"/>
+      <c r="S3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="T3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="10" t="s">
+      <c r="U3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="11"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="13"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="8"/>
     </row>
     <row r="4" spans="1:24" ht="16.649999999999999" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="16"/>
+      <c r="E4" s="10"/>
       <c r="F4" s="1"/>
       <c r="G4" s="2"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="3"/>
+      <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
+      <c r="P4" s="3"/>
       <c r="Q4" s="1"/>
-      <c r="R4" s="4"/>
+      <c r="R4" s="3"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
-    </row>
-    <row r="5" spans="1:24" ht="14.6" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
